--- a/medicine/Mort/Tandis_que_j'agonise_(film)/Tandis_que_j'agonise_(film).xlsx
+++ b/medicine/Mort/Tandis_que_j'agonise_(film)/Tandis_que_j'agonise_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tandis_que_j%27agonise_(film)</t>
+          <t>Tandis_que_j'agonise_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tandis que j'agonise[1] (As I Lay Dying) est un film américain réalisé par James Franco, sorti en 2013[2]. Il s'agit de l'adaptation du roman homonyme de William Faulkner, publié en français sous le titre Tandis que j'agonise.
-Il a été présenté au Festival de Cannes 2013, dans la section Un certain regard[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tandis que j'agonise (As I Lay Dying) est un film américain réalisé par James Franco, sorti en 2013. Il s'agit de l'adaptation du roman homonyme de William Faulkner, publié en français sous le titre Tandis que j'agonise.
+Il a été présenté au Festival de Cannes 2013, dans la section Un certain regard.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tandis_que_j%27agonise_(film)</t>
+          <t>Tandis_que_j'agonise_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après le décès de sa femme Addie, Anse Bundren et ses cinq enfants (Cash, Darl, Jewel, Dewey Dell et Vardaman) traversent l'État du Mississippi pour accompagner la défunte jusqu'à Jefferson, sa ville natale. Les Bundren quittent donc la ferme familiale avec le cercueil sur une charrette.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tandis_que_j%27agonise_(film)</t>
+          <t>Tandis_que_j'agonise_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : As I Lay Dying
-Titre français : Tandis que j'agonise[1]
+Titre français : Tandis que j'agonise
 Réalisation : James Franco
 Scénario : James Franco, d'après le roman Tandis que j'agonise de William Faulkner
 Direction artistique : Eric Morrell
@@ -566,7 +582,7 @@
 Format : couleur - 35 mm - 2,35:1 - son Dolby numérique
 Genre : Drame et historique
 Durée : 120 minutes
-Dates de sortie[4] :
+Dates de sortie :
  France : mai 2013 (Festival de Cannes 2013 - Un certain regard)
  France : 9 octobre 2013
  États-Unis : 22 octobre 2013 (sortie en VOD)
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tandis_que_j%27agonise_(film)</t>
+          <t>Tandis_que_j'agonise_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>James Franco : Darl Bundren
 Logan Marshall-Green : Jewel
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tandis_que_j%27agonise_(film)</t>
+          <t>Tandis_que_j'agonise_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,10 +662,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Chlotrudis Awards 2014 : Meilleure distribution, Meilleur scénario adapté
-Sélection
-Festival de Cannes 2013 : sélection « Un certain regard »</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chlotrudis Awards 2014 : Meilleure distribution, Meilleur scénario adapté</t>
         </is>
       </c>
     </row>
@@ -657,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tandis_que_j%27agonise_(film)</t>
+          <t>Tandis_que_j'agonise_(film)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,13 +693,54 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2013 : sélection « Un certain regard »</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tandis_que_j'agonise_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tandis_que_j%27agonise_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tournage
-Le film a été tourné à Canton dans l'État du Mississippi[5].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été tourné à Canton dans l'État du Mississippi.
 </t>
         </is>
       </c>
